--- a/0-Authors List-Meta Analysis paper-Aug24.xlsx
+++ b/0-Authors List-Meta Analysis paper-Aug24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmir/Library/CloudStorage/Dropbox/240822_authors_list_spreadsheet_meta_analysis_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmir/Library/CloudStorage/Dropbox/git/240822_authors_list_spreadsheet_meta_analysis_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D2A8C0-5490-BB4B-95FE-13D0DC5A0CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFF6013-5B3F-2B4B-BE82-88BFC36F173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7560" yWindow="-28300" windowWidth="47340" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43820" yWindow="-24120" windowWidth="44920" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Authors" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="465">
   <si>
     <t>Name W/O Title (Name Actually Used in Paper Author List)</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Estonian Biobank Research Team</t>
   </si>
   <si>
-    <t>Estonian Biobank Research Team: Andres Metspalu, Mari Nelis, Lili Milani, Reedik Mägi &amp; Georgi Hudjashov &amp;Tõnu Esko</t>
-  </si>
-  <si>
     <t>Finngen</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
     <t>andres.metspalu@ut.ee</t>
   </si>
   <si>
-    <t>Estonian Biobank Research Team: Andres Metspalu, Mari Nelis, Lili Milani, Reedik Mägi &amp; Tõnu Esko</t>
-  </si>
-  <si>
     <t>Brittany L. Mitchell</t>
   </si>
   <si>
@@ -1498,6 +1492,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Estonian Biobank Research Team: Andres Metspalu, Mari Nelis, Lili Milani, Reedik Mägi, Georgi Hudjashov &amp; Tõnu Esko</t>
   </si>
 </sst>
 </file>
@@ -1978,10 +1975,10 @@
   <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2017,7 +2014,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2041,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>7</v>
@@ -2053,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>7</v>
@@ -2095,12 +2092,12 @@
         <v>18</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>19</v>
@@ -2137,7 +2134,7 @@
     </row>
     <row r="3" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>22</v>
@@ -2174,7 +2171,7 @@
     </row>
     <row r="4" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>24</v>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="5" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>25</v>
@@ -2248,7 +2245,7 @@
     </row>
     <row r="6" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>26</v>
@@ -2294,7 +2291,7 @@
     </row>
     <row r="7" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>30</v>
@@ -2331,7 +2328,7 @@
     </row>
     <row r="8" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>31</v>
@@ -2371,18 +2368,18 @@
         <v>20</v>
       </c>
       <c r="T8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z8" t="s">
         <v>35</v>
       </c>
       <c r="AA8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>36</v>
@@ -2426,24 +2423,24 @@
         <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="U9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="W9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>41</v>
@@ -2469,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
@@ -2487,12 +2484,12 @@
         <v>44</v>
       </c>
       <c r="AA10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>45</v>
@@ -2542,18 +2539,18 @@
         <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z11" t="s">
         <v>52</v>
       </c>
       <c r="AA11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>53</v>
@@ -2597,15 +2594,15 @@
         <v>20</v>
       </c>
       <c r="X12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>58</v>
@@ -2637,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N13" t="s">
         <v>20</v>
@@ -2658,12 +2655,12 @@
         <v>29</v>
       </c>
       <c r="AA13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>62</v>
@@ -2719,12 +2716,12 @@
         <v>29</v>
       </c>
       <c r="AA14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>68</v>
@@ -2765,7 +2762,7 @@
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P15" t="s">
         <v>20</v>
@@ -2795,12 +2792,12 @@
         <v>72</v>
       </c>
       <c r="AA15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>73</v>
@@ -2850,24 +2847,24 @@
         <v>79</v>
       </c>
       <c r="T16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="U16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="W16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z16" t="s">
         <v>80</v>
       </c>
       <c r="AA16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>81</v>
@@ -2911,15 +2908,15 @@
         <v>85</v>
       </c>
       <c r="T17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>86</v>
@@ -2972,12 +2969,12 @@
         <v>29</v>
       </c>
       <c r="AA18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>92</v>
@@ -3024,18 +3021,18 @@
         <v>97</v>
       </c>
       <c r="T19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z19" t="s">
         <v>98</v>
       </c>
       <c r="AA19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>99</v>
@@ -3074,7 +3071,7 @@
     </row>
     <row r="21" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>100</v>
@@ -3133,12 +3130,12 @@
         <v>29</v>
       </c>
       <c r="AA21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>106</v>
@@ -3161,7 +3158,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -3188,12 +3185,12 @@
         <v>29</v>
       </c>
       <c r="AA22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>110</v>
@@ -3240,12 +3237,12 @@
         <v>29</v>
       </c>
       <c r="AA23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>115</v>
@@ -3270,7 +3267,7 @@
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>116</v>
+        <v>464</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
@@ -3296,10 +3293,10 @@
     </row>
     <row r="25" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3312,7 +3309,7 @@
         <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="10">
         <v>1</v>
@@ -3321,7 +3318,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
@@ -3338,10 +3335,10 @@
     </row>
     <row r="26" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3354,23 +3351,23 @@
         <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>317</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
         <v>121</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>319</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" t="s">
-        <v>122</v>
       </c>
       <c r="N26" t="s">
         <v>20</v>
@@ -3385,15 +3382,15 @@
         <v>44</v>
       </c>
       <c r="AA26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3406,17 +3403,17 @@
         <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
         <v>125</v>
-      </c>
-      <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s">
-        <v>126</v>
       </c>
       <c r="L27" t="s">
         <v>20</v>
@@ -3434,18 +3431,18 @@
         <v>61</v>
       </c>
       <c r="X27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3458,52 +3455,52 @@
         <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>317</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
         <v>129</v>
       </c>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>319</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" t="s">
         <v>130</v>
       </c>
-      <c r="N28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" t="s">
-        <v>20</v>
-      </c>
-      <c r="S28" t="s">
-        <v>131</v>
-      </c>
       <c r="U28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="W28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3516,11 +3513,11 @@
         <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
@@ -3550,18 +3547,18 @@
         <v>29</v>
       </c>
       <c r="Z29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3574,20 +3571,20 @@
         <v>99</v>
       </c>
       <c r="F30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" t="s">
         <v>137</v>
-      </c>
-      <c r="G30" t="s">
-        <v>138</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s">
         <v>20</v>
@@ -3614,18 +3611,18 @@
         <v>29</v>
       </c>
       <c r="Z30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3638,17 +3635,17 @@
         <v>99</v>
       </c>
       <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" t="s">
         <v>142</v>
-      </c>
-      <c r="G31" t="s">
-        <v>143</v>
       </c>
       <c r="H31" s="10"/>
       <c r="J31" t="s">
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s">
         <v>20</v>
@@ -3672,15 +3669,15 @@
         <v>29</v>
       </c>
       <c r="Z31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3693,20 +3690,20 @@
         <v>99</v>
       </c>
       <c r="F32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" t="s">
         <v>147</v>
-      </c>
-      <c r="G32" t="s">
-        <v>148</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
         <v>149</v>
-      </c>
-      <c r="J32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" t="s">
-        <v>150</v>
       </c>
       <c r="L32" t="s">
         <v>20</v>
@@ -3736,15 +3733,15 @@
         <v>29</v>
       </c>
       <c r="AA32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3757,35 +3754,35 @@
         <v>99</v>
       </c>
       <c r="F33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" t="s">
         <v>152</v>
-      </c>
-      <c r="G33" t="s">
-        <v>153</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
         <v>154</v>
       </c>
-      <c r="J33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" t="s">
         <v>155</v>
-      </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" t="s">
-        <v>20</v>
-      </c>
-      <c r="S33" t="s">
-        <v>156</v>
       </c>
       <c r="W33" t="s">
         <v>29</v>
@@ -3794,15 +3791,15 @@
         <v>29</v>
       </c>
       <c r="AA33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="9" t="str">
         <f t="shared" ref="C34:C65" si="1">IF(NOT(H34),UPPER(LEFT(B34,1)) &amp; "." &amp; IF(ISNUMBER(FIND(" ",B34)), UPPER(MID(B34,FIND(" ",B34)+1,1)) &amp; ".", "") &amp; IF(ISNUMBER(FIND(" ", B34, FIND(" ", B34) + 1)), UPPER(MID(B34, FIND(" ", B34, FIND(" ", B34) + 1) + 1, 1)) &amp; ".", ""),"")</f>
@@ -3815,11 +3812,11 @@
         <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
@@ -3849,18 +3846,18 @@
         <v>29</v>
       </c>
       <c r="Z34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3873,32 +3870,32 @@
         <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" t="s">
         <v>163</v>
-      </c>
-      <c r="J35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" t="s">
-        <v>319</v>
-      </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" t="s">
-        <v>20</v>
-      </c>
-      <c r="S35" t="s">
-        <v>164</v>
       </c>
       <c r="T35" t="s">
         <v>29</v>
@@ -3910,15 +3907,15 @@
         <v>29</v>
       </c>
       <c r="AA35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3931,11 +3928,11 @@
         <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J36" t="s">
         <v>20</v>
@@ -3965,15 +3962,15 @@
         <v>52</v>
       </c>
       <c r="AA36" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3986,18 +3983,18 @@
         <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" t="s">
+        <v>169</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
         <v>170</v>
       </c>
-      <c r="J37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" t="s">
-        <v>171</v>
-      </c>
       <c r="L37" t="s">
         <v>20</v>
       </c>
@@ -4011,7 +4008,7 @@
         <v>20</v>
       </c>
       <c r="S37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U37" t="s">
         <v>29</v>
@@ -4020,15 +4017,15 @@
         <v>29</v>
       </c>
       <c r="AA37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C38" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4041,17 +4038,17 @@
         <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J38" t="s">
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L38" t="s">
         <v>20</v>
@@ -4066,21 +4063,21 @@
         <v>20</v>
       </c>
       <c r="S38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA38" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4093,52 +4090,52 @@
         <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" t="s">
+        <v>130</v>
+      </c>
+      <c r="U39" t="s">
+        <v>463</v>
+      </c>
+      <c r="W39" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z39" t="s">
         <v>177</v>
       </c>
-      <c r="J39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" t="s">
-        <v>319</v>
-      </c>
-      <c r="L39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S39" t="s">
-        <v>131</v>
-      </c>
-      <c r="U39" t="s">
-        <v>465</v>
-      </c>
-      <c r="W39" t="s">
-        <v>465</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>178</v>
-      </c>
       <c r="AA39" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4151,32 +4148,32 @@
         <v>99</v>
       </c>
       <c r="F40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" t="s">
         <v>180</v>
-      </c>
-      <c r="G40" t="s">
-        <v>181</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" t="s">
+        <v>181</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s">
         <v>182</v>
       </c>
-      <c r="J40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" t="s">
         <v>183</v>
       </c>
-      <c r="L40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" t="s">
         <v>184</v>
-      </c>
-      <c r="N40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" t="s">
-        <v>185</v>
       </c>
       <c r="P40" t="s">
         <v>20</v>
@@ -4188,21 +4185,21 @@
         <v>97</v>
       </c>
       <c r="T40" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z40" t="s">
         <v>98</v>
       </c>
       <c r="AA40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4215,7 +4212,7 @@
         <v>99</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H41" s="10">
         <v>1</v>
@@ -4224,7 +4221,7 @@
         <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L41" t="s">
         <v>20</v>
@@ -4241,10 +4238,10 @@
     </row>
     <row r="42" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4257,14 +4254,14 @@
         <v>99</v>
       </c>
       <c r="F42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" t="s">
         <v>189</v>
-      </c>
-      <c r="G42" t="s">
-        <v>190</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J42" t="s">
         <v>20</v>
@@ -4288,24 +4285,24 @@
         <v>97</v>
       </c>
       <c r="V42" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="W42" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X42" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA42" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4318,32 +4315,32 @@
         <v>99</v>
       </c>
       <c r="F43" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" t="s">
         <v>193</v>
-      </c>
-      <c r="G43" t="s">
-        <v>194</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
         <v>195</v>
       </c>
-      <c r="J43" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
         <v>196</v>
       </c>
-      <c r="L43" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" t="s">
         <v>197</v>
-      </c>
-      <c r="N43" t="s">
-        <v>20</v>
-      </c>
-      <c r="O43" t="s">
-        <v>198</v>
       </c>
       <c r="P43" t="s">
         <v>20</v>
@@ -4355,27 +4352,27 @@
         <v>85</v>
       </c>
       <c r="T43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="V43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="W43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA43" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4388,23 +4385,23 @@
         <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" t="s">
+        <v>200</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s">
         <v>201</v>
       </c>
-      <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" t="s">
-        <v>202</v>
-      </c>
       <c r="L44" t="s">
         <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N44" t="s">
         <v>20</v>
@@ -4419,15 +4416,15 @@
         <v>44</v>
       </c>
       <c r="AA44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4440,32 +4437,32 @@
         <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J45" t="s">
         <v>20</v>
       </c>
       <c r="K45" t="s">
+        <v>204</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" t="s">
         <v>205</v>
-      </c>
-      <c r="L45" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" t="s">
-        <v>20</v>
-      </c>
-      <c r="S45" t="s">
-        <v>206</v>
       </c>
       <c r="T45" t="s">
         <v>29</v>
@@ -4477,15 +4474,15 @@
         <v>29</v>
       </c>
       <c r="AA45" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C46" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4498,17 +4495,17 @@
         <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L46" t="s">
         <v>20</v>
@@ -4526,27 +4523,27 @@
         <v>61</v>
       </c>
       <c r="T46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="U46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="V46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="W46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA46" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4559,32 +4556,32 @@
         <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J47" t="s">
         <v>20</v>
       </c>
       <c r="K47" t="s">
+        <v>204</v>
+      </c>
+      <c r="L47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" t="s">
         <v>205</v>
-      </c>
-      <c r="L47" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" t="s">
-        <v>20</v>
-      </c>
-      <c r="S47" t="s">
-        <v>206</v>
       </c>
       <c r="T47" t="s">
         <v>29</v>
@@ -4596,15 +4593,15 @@
         <v>29</v>
       </c>
       <c r="AA47" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C48" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4617,23 +4614,23 @@
         <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J48" t="s">
         <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s">
         <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>113</v>
+        <v>464</v>
       </c>
       <c r="N48" t="s">
         <v>20</v>
@@ -4648,15 +4645,15 @@
         <v>114</v>
       </c>
       <c r="AA48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C49" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4669,32 +4666,32 @@
         <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J49" t="s">
         <v>20</v>
       </c>
       <c r="K49" t="s">
+        <v>204</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" t="s">
         <v>205</v>
-      </c>
-      <c r="L49" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" t="s">
-        <v>206</v>
       </c>
       <c r="W49" t="s">
         <v>29</v>
@@ -4703,15 +4700,15 @@
         <v>29</v>
       </c>
       <c r="AA49" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C50" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4724,17 +4721,17 @@
         <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J50" t="s">
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L50" t="s">
         <v>20</v>
@@ -4749,18 +4746,18 @@
         <v>20</v>
       </c>
       <c r="X50" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA50" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C51" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4773,46 +4770,46 @@
         <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
+        <v>223</v>
+      </c>
+      <c r="L51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" t="s">
         <v>224</v>
       </c>
-      <c r="J51" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" t="s">
-        <v>225</v>
-      </c>
-      <c r="L51" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" t="s">
-        <v>20</v>
-      </c>
-      <c r="S51" t="s">
-        <v>226</v>
-      </c>
       <c r="X51" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA51" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C52" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4825,20 +4822,20 @@
         <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J52" t="s">
         <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L52" t="s">
         <v>20</v>
@@ -4856,18 +4853,18 @@
         <v>85</v>
       </c>
       <c r="V52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA52" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C53" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4880,11 +4877,11 @@
         <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J53" t="s">
         <v>20</v>
@@ -4908,21 +4905,21 @@
         <v>40</v>
       </c>
       <c r="T53" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="U53" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C54" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4935,17 +4932,17 @@
         <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J54" t="s">
         <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L54" t="s">
         <v>20</v>
@@ -4960,27 +4957,27 @@
         <v>20</v>
       </c>
       <c r="S54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U54" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="W54" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X54" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA54" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C55" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4993,23 +4990,23 @@
         <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J55" t="s">
         <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L55" t="s">
         <v>20</v>
       </c>
       <c r="M55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N55" t="s">
         <v>20</v>
@@ -5021,30 +5018,30 @@
         <v>20</v>
       </c>
       <c r="S55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U55" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="W55" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X55" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA55" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C56" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5057,14 +5054,14 @@
         <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J56" t="s">
         <v>20</v>
@@ -5094,15 +5091,15 @@
         <v>29</v>
       </c>
       <c r="AA56" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C57" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5115,14 +5112,14 @@
         <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J57" t="s">
         <v>20</v>
@@ -5155,15 +5152,15 @@
         <v>29</v>
       </c>
       <c r="AA57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C58" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5176,17 +5173,17 @@
         <v>99</v>
       </c>
       <c r="F58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J58" t="s">
         <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L58" t="s">
         <v>20</v>
@@ -5201,21 +5198,21 @@
         <v>20</v>
       </c>
       <c r="S58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X58" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA58" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C59" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5228,17 +5225,17 @@
         <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J59" t="s">
         <v>20</v>
       </c>
       <c r="K59" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L59" t="s">
         <v>20</v>
@@ -5265,15 +5262,15 @@
         <v>52</v>
       </c>
       <c r="AA59" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C60" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5286,17 +5283,17 @@
         <v>99</v>
       </c>
       <c r="F60" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J60" t="s">
         <v>20</v>
       </c>
       <c r="K60" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
@@ -5311,21 +5308,21 @@
         <v>20</v>
       </c>
       <c r="S60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T60" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA60" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C61" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5338,61 +5335,61 @@
         <v>99</v>
       </c>
       <c r="F61" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H61" s="10"/>
       <c r="I61" t="s">
+        <v>260</v>
+      </c>
+      <c r="J61" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s">
+        <v>261</v>
+      </c>
+      <c r="L61" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
+        <v>317</v>
+      </c>
+      <c r="N61" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" t="s">
+        <v>129</v>
+      </c>
+      <c r="P61" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>238</v>
+      </c>
+      <c r="R61" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" t="s">
+        <v>130</v>
+      </c>
+      <c r="U61" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z61" t="s">
         <v>262</v>
       </c>
-      <c r="J61" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" t="s">
-        <v>263</v>
-      </c>
-      <c r="L61" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" t="s">
-        <v>319</v>
-      </c>
-      <c r="N61" t="s">
-        <v>20</v>
-      </c>
-      <c r="O61" t="s">
-        <v>130</v>
-      </c>
-      <c r="P61" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>240</v>
-      </c>
-      <c r="R61" t="s">
-        <v>20</v>
-      </c>
-      <c r="S61" t="s">
-        <v>131</v>
-      </c>
-      <c r="U61" t="s">
-        <v>465</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>264</v>
-      </c>
       <c r="AA61" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C62" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5405,55 +5402,55 @@
         <v>99</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" t="s">
+        <v>266</v>
+      </c>
+      <c r="J62" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s">
+        <v>267</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" t="s">
         <v>268</v>
       </c>
-      <c r="J62" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="N62" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" t="s">
         <v>269</v>
       </c>
-      <c r="L62" t="s">
-        <v>20</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" t="s">
         <v>270</v>
       </c>
-      <c r="N62" t="s">
-        <v>20</v>
-      </c>
-      <c r="O62" t="s">
-        <v>271</v>
-      </c>
-      <c r="P62" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" t="s">
-        <v>272</v>
-      </c>
       <c r="X62" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA62" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C63" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5466,14 +5463,14 @@
         <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G63" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J63" t="s">
         <v>20</v>
@@ -5497,24 +5494,24 @@
         <v>97</v>
       </c>
       <c r="T63" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="V63" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C64" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5527,17 +5524,17 @@
         <v>99</v>
       </c>
       <c r="F64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J64" t="s">
         <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L64" t="s">
         <v>20</v>
@@ -5555,21 +5552,21 @@
         <v>61</v>
       </c>
       <c r="W64" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X64" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA64" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C65" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5582,17 +5579,17 @@
         <v>99</v>
       </c>
       <c r="F65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H65" s="10"/>
       <c r="I65" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J65" t="s">
         <v>20</v>
       </c>
       <c r="K65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L65" t="s">
         <v>20</v>
@@ -5619,35 +5616,35 @@
         <v>52</v>
       </c>
       <c r="AA65" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="9" t="str">
+        <f t="shared" ref="C66:C77" si="2">IF(NOT(H66),UPPER(LEFT(B66,1)) &amp; "." &amp; IF(ISNUMBER(FIND(" ",B66)), UPPER(MID(B66,FIND(" ",B66)+1,1)) &amp; ".", "") &amp; IF(ISNUMBER(FIND(" ", B66, FIND(" ", B66) + 1)), UPPER(MID(B66, FIND(" ", B66, FIND(" ", B66) + 1) + 1, 1)) &amp; ".", ""),"")</f>
+        <v>E.Y.</v>
+      </c>
+      <c r="D66">
+        <v>99</v>
+      </c>
+      <c r="E66">
+        <v>99</v>
+      </c>
+      <c r="F66" t="s">
+        <v>283</v>
+      </c>
+      <c r="G66" t="s">
         <v>284</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f t="shared" ref="C66:C97" si="2">IF(NOT(H66),UPPER(LEFT(B66,1)) &amp; "." &amp; IF(ISNUMBER(FIND(" ",B66)), UPPER(MID(B66,FIND(" ",B66)+1,1)) &amp; ".", "") &amp; IF(ISNUMBER(FIND(" ", B66, FIND(" ", B66) + 1)), UPPER(MID(B66, FIND(" ", B66, FIND(" ", B66) + 1) + 1, 1)) &amp; ".", ""),"")</f>
-        <v>E.Y.</v>
-      </c>
-      <c r="D66">
-        <v>99</v>
-      </c>
-      <c r="E66">
-        <v>99</v>
-      </c>
-      <c r="F66" t="s">
-        <v>285</v>
-      </c>
-      <c r="G66" t="s">
-        <v>286</v>
       </c>
       <c r="H66" s="10"/>
       <c r="I66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J66" t="s">
         <v>20</v>
@@ -5659,7 +5656,7 @@
         <v>20</v>
       </c>
       <c r="M66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N66" t="s">
         <v>20</v>
@@ -5680,18 +5677,18 @@
         <v>29</v>
       </c>
       <c r="Z66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C67" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5708,7 +5705,7 @@
         <v>20</v>
       </c>
       <c r="K67" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L67" t="s">
         <v>20</v>
@@ -5726,15 +5723,15 @@
         <v>29</v>
       </c>
       <c r="Z67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C68" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5748,13 +5745,13 @@
       </c>
       <c r="H68" s="10"/>
       <c r="I68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J68" t="s">
         <v>20</v>
       </c>
       <c r="K68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L68" t="s">
         <v>20</v>
@@ -5769,27 +5766,27 @@
         <v>20</v>
       </c>
       <c r="S68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X68" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Y68" t="s">
         <v>29</v>
       </c>
       <c r="Z68" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA68" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C69" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5803,13 +5800,13 @@
       </c>
       <c r="H69" s="10"/>
       <c r="I69" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J69" t="s">
         <v>20</v>
       </c>
       <c r="K69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L69" t="s">
         <v>20</v>
@@ -5827,27 +5824,27 @@
         <v>20</v>
       </c>
       <c r="S69" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T69" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X69" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA69" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C70" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5864,7 +5861,7 @@
         <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L70" t="s">
         <v>20</v>
@@ -5882,15 +5879,15 @@
         <v>29</v>
       </c>
       <c r="Z70" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C71" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5904,13 +5901,13 @@
       </c>
       <c r="H71" s="10"/>
       <c r="I71" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J71" t="s">
         <v>20</v>
       </c>
       <c r="K71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L71" t="s">
         <v>20</v>
@@ -5931,18 +5928,18 @@
         <v>29</v>
       </c>
       <c r="Z71" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA71" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C72" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5955,58 +5952,58 @@
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H72" s="10"/>
       <c r="I72" t="s">
+        <v>300</v>
+      </c>
+      <c r="J72" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s">
+        <v>301</v>
+      </c>
+      <c r="L72" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" t="s">
         <v>302</v>
       </c>
-      <c r="J72" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" t="s">
+      <c r="N72" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" t="s">
         <v>303</v>
       </c>
-      <c r="L72" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72" t="s">
+      <c r="W72" t="s">
+        <v>463</v>
+      </c>
+      <c r="X72" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z72" t="s">
         <v>304</v>
       </c>
-      <c r="N72" t="s">
-        <v>20</v>
-      </c>
-      <c r="P72" t="s">
-        <v>20</v>
-      </c>
-      <c r="R72" t="s">
-        <v>20</v>
-      </c>
-      <c r="S72" t="s">
-        <v>305</v>
-      </c>
-      <c r="W72" t="s">
-        <v>465</v>
-      </c>
-      <c r="X72" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>465</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>306</v>
-      </c>
       <c r="AA72" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C73" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6023,7 +6020,7 @@
         <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L73" t="s">
         <v>20</v>
@@ -6035,7 +6032,7 @@
         <v>20</v>
       </c>
       <c r="O73" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P73" t="s">
         <v>20</v>
@@ -6046,10 +6043,10 @@
     </row>
     <row r="74" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C74" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6066,13 +6063,13 @@
         <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L74" t="s">
         <v>20</v>
       </c>
       <c r="M74" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N74" t="s">
         <v>20</v>
@@ -6086,10 +6083,10 @@
     </row>
     <row r="75" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C75" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6106,7 +6103,7 @@
         <v>20</v>
       </c>
       <c r="K75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L75" t="s">
         <v>20</v>
@@ -6123,10 +6120,10 @@
     </row>
     <row r="76" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C76" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6155,7 +6152,7 @@
         <v>20</v>
       </c>
       <c r="O76" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P76" t="s">
         <v>20</v>
@@ -6166,10 +6163,10 @@
     </row>
     <row r="77" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6192,7 +6189,7 @@
         <v>20</v>
       </c>
       <c r="M77" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N77" t="s">
         <v>20</v>
